--- a/gold/excel/supplier_summary.xlsx
+++ b/gold/excel/supplier_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58135.28</v>
+        <v>39482.46000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>5813.528</v>
+        <v>1974.123000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -494,22 +494,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>maintenance</t>
+          <t>catering</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8014.69</v>
+        <v>92287.27</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2671.563333333333</v>
+        <v>8389.751818181818</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,33 +520,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fuel</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58135.28</v>
+        <v>231730.48</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>5813.528</v>
+        <v>11034.78476190476</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>investigate</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9234.139999999999</v>
+        <v>277594.74</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2308.535</v>
+        <v>9914.097857142857</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42359.93000000001</v>
+        <v>126003.02</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5294.991250000001</v>
+        <v>7411.942352941175</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -598,24 +598,128 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>S004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>267678.0900000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14871.005</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>48666.21000000002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2027.758750000001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>S003</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46906.63000000002</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2039.418695652175</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S008</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>catering</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>34540.93</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C10" t="n">
+        <v>157532.35</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>4934.418571428571</v>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8291.176315789473</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>S010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>catering</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>174173.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8708.683000000001</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>fine</t>
         </is>
